--- a/QuantLibXL/Data/XLS/040_SwaptionVolBootstrap/040_Experimental/EUR_020_SwaptionSabrVolSurfaces.xlsx
+++ b/QuantLibXL/Data/XLS/040_SwaptionVolBootstrap/040_Experimental/EUR_020_SwaptionSabrVolSurfaces.xlsx
@@ -10,9 +10,6 @@
     <sheet name="General Setttings" sheetId="4" r:id="rId1"/>
     <sheet name="SabrSurfaces" sheetId="3" r:id="rId2"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId3"/>
-  </externalReferences>
   <definedNames>
     <definedName name="abcdName">'General Setttings'!$D$17</definedName>
     <definedName name="atmVolSource">'General Setttings'!$D$15</definedName>
@@ -32,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="39">
   <si>
     <t>Trigger</t>
   </si>
@@ -146,6 +143,9 @@
   </si>
   <si>
     <t>ICAP</t>
+  </si>
+  <si>
+    <t>C:\Users\erik\junk\</t>
   </si>
 </sst>
 </file>
@@ -155,7 +155,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="ddd\,\ d\-mmm\-yyyy\,\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -977,22 +977,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Feuil1"/>
-    </sheetNames>
-    <definedNames>
-      <definedName name="qlSerializationPath"/>
-    </definedNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1289,7 +1273,7 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3" style="36" customWidth="1"/>
     <col min="2" max="2" width="5.140625" style="36" customWidth="1"/>
@@ -1299,13 +1283,13 @@
     <col min="6" max="16384" width="9.140625" style="36"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="27" customFormat="1">
+    <row r="1" spans="1:33" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B1" s="28" t="str">
         <f>_xll.qlxlVersion(TRUE,Trigger)</f>
         <v>QuantLibXL 1.2.0 - MS VC++ 9.0 - Multithreaded Dynamic Runtime library - Release Configuration - Jan 18 2013 12:11:06</v>
       </c>
     </row>
-    <row r="2" spans="1:33" s="27" customFormat="1" ht="15.75">
+    <row r="2" spans="1:33" s="27" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="91" t="s">
         <v>15</v>
       </c>
@@ -1313,13 +1297,13 @@
       <c r="D2" s="92"/>
       <c r="E2" s="93"/>
     </row>
-    <row r="3" spans="1:33" s="27" customFormat="1" ht="13.5" thickBot="1">
+    <row r="3" spans="1:33" s="27" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="61"/>
       <c r="C3" s="44"/>
       <c r="D3" s="44"/>
       <c r="E3" s="62"/>
     </row>
-    <row r="4" spans="1:33" s="27" customFormat="1">
+    <row r="4" spans="1:33" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="61"/>
       <c r="C4" s="54" t="s">
         <v>0</v>
@@ -1327,7 +1311,7 @@
       <c r="D4" s="55"/>
       <c r="E4" s="63"/>
     </row>
-    <row r="5" spans="1:33" s="27" customFormat="1">
+    <row r="5" spans="1:33" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="61"/>
       <c r="C5" s="56" t="s">
         <v>9</v>
@@ -1337,7 +1321,7 @@
       </c>
       <c r="E5" s="63"/>
     </row>
-    <row r="6" spans="1:33" s="27" customFormat="1">
+    <row r="6" spans="1:33" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="61"/>
       <c r="C6" s="56" t="s">
         <v>16</v>
@@ -1347,7 +1331,7 @@
       </c>
       <c r="E6" s="63"/>
     </row>
-    <row r="7" spans="1:33" s="27" customFormat="1">
+    <row r="7" spans="1:33" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="61"/>
       <c r="C7" s="56" t="s">
         <v>17</v>
@@ -1357,18 +1341,17 @@
       </c>
       <c r="E7" s="63"/>
     </row>
-    <row r="8" spans="1:33" s="27" customFormat="1">
+    <row r="8" spans="1:33" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="61"/>
       <c r="C8" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="88" t="str">
-        <f>[1]!qlSerializationPath(Trigger)</f>
-        <v>\\srv0001\risorse\WorkGroup\IMI_Workbooks\Production\QLXL_R01030x\Data\XML\040_SwaptionVolBootstrap\040_Experimental\</v>
+      <c r="D8" s="88" t="s">
+        <v>38</v>
       </c>
       <c r="E8" s="63"/>
     </row>
-    <row r="9" spans="1:33" s="27" customFormat="1" ht="13.5" thickBot="1">
+    <row r="9" spans="1:33" s="27" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="61"/>
       <c r="C9" s="59" t="s">
         <v>19</v>
@@ -1378,14 +1361,14 @@
       </c>
       <c r="E9" s="63"/>
     </row>
-    <row r="10" spans="1:33" s="27" customFormat="1">
+    <row r="10" spans="1:33" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="64"/>
       <c r="C10" s="65"/>
       <c r="D10" s="65"/>
       <c r="E10" s="66"/>
     </row>
-    <row r="11" spans="1:33" s="27" customFormat="1"/>
-    <row r="12" spans="1:33" s="27" customFormat="1" ht="15.75">
+    <row r="11" spans="1:33" s="27" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:33" s="27" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="91" t="s">
         <v>20</v>
       </c>
@@ -1393,7 +1376,7 @@
       <c r="D12" s="92"/>
       <c r="E12" s="93"/>
     </row>
-    <row r="13" spans="1:33" customFormat="1" ht="13.5" thickBot="1">
+    <row r="13" spans="1:33" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="27"/>
       <c r="B13" s="29"/>
       <c r="C13" s="30"/>
@@ -1428,7 +1411,7 @@
       <c r="AF13" s="27"/>
       <c r="AG13" s="27"/>
     </row>
-    <row r="14" spans="1:33" customFormat="1">
+    <row r="14" spans="1:33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="27"/>
       <c r="B14" s="29"/>
       <c r="C14" s="48" t="s">
@@ -1467,7 +1450,7 @@
       <c r="AF14" s="27"/>
       <c r="AG14" s="27"/>
     </row>
-    <row r="15" spans="1:33" customFormat="1">
+    <row r="15" spans="1:33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="27"/>
       <c r="B15" s="29"/>
       <c r="C15" s="76" t="s">
@@ -1506,7 +1489,7 @@
       <c r="AF15" s="27"/>
       <c r="AG15" s="27"/>
     </row>
-    <row r="16" spans="1:33" s="27" customFormat="1">
+    <row r="16" spans="1:33" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="61"/>
       <c r="C16" s="56" t="s">
         <v>24</v>
@@ -1516,7 +1499,7 @@
       </c>
       <c r="E16" s="63"/>
     </row>
-    <row r="17" spans="1:33" s="27" customFormat="1">
+    <row r="17" spans="1:33" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="29"/>
       <c r="C17" s="50" t="s">
         <v>10</v>
@@ -1527,7 +1510,7 @@
       </c>
       <c r="E17" s="32"/>
     </row>
-    <row r="18" spans="1:33" s="27" customFormat="1" ht="13.5" thickBot="1">
+    <row r="18" spans="1:33" s="27" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="29"/>
       <c r="C18" s="52" t="s">
         <v>12</v>
@@ -1538,7 +1521,7 @@
       </c>
       <c r="E18" s="32"/>
     </row>
-    <row r="19" spans="1:33" customFormat="1">
+    <row r="19" spans="1:33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="27"/>
       <c r="B19" s="33"/>
       <c r="C19" s="34"/>
@@ -1573,36 +1556,36 @@
       <c r="AF19" s="27"/>
       <c r="AG19" s="27"/>
     </row>
-    <row r="20" spans="1:33" s="27" customFormat="1"/>
-    <row r="21" spans="1:33" s="27" customFormat="1"/>
-    <row r="22" spans="1:33" s="27" customFormat="1"/>
-    <row r="23" spans="1:33" s="27" customFormat="1"/>
-    <row r="24" spans="1:33" s="27" customFormat="1"/>
-    <row r="25" spans="1:33" s="27" customFormat="1"/>
-    <row r="26" spans="1:33" s="27" customFormat="1"/>
-    <row r="27" spans="1:33" s="27" customFormat="1"/>
-    <row r="28" spans="1:33" s="27" customFormat="1"/>
-    <row r="29" spans="1:33" s="27" customFormat="1"/>
-    <row r="30" spans="1:33" s="27" customFormat="1"/>
-    <row r="31" spans="1:33" s="27" customFormat="1"/>
-    <row r="32" spans="1:33" s="27" customFormat="1"/>
-    <row r="33" s="27" customFormat="1"/>
-    <row r="34" s="27" customFormat="1"/>
-    <row r="35" s="27" customFormat="1"/>
-    <row r="36" s="27" customFormat="1"/>
-    <row r="37" s="27" customFormat="1"/>
-    <row r="38" s="27" customFormat="1"/>
-    <row r="39" s="27" customFormat="1"/>
-    <row r="40" s="27" customFormat="1"/>
-    <row r="41" s="27" customFormat="1"/>
-    <row r="42" s="27" customFormat="1"/>
-    <row r="43" s="27" customFormat="1"/>
-    <row r="44" s="27" customFormat="1"/>
-    <row r="45" s="27" customFormat="1"/>
-    <row r="46" s="27" customFormat="1"/>
-    <row r="47" s="27" customFormat="1"/>
-    <row r="48" s="27" customFormat="1"/>
-    <row r="49" s="27" customFormat="1"/>
+    <row r="20" spans="1:33" s="27" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="1:33" s="27" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="1:33" s="27" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="23" spans="1:33" s="27" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="1:33" s="27" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="25" spans="1:33" s="27" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="1:33" s="27" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="1:33" s="27" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="1:33" s="27" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:33" s="27" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:33" s="27" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:33" s="27" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:33" s="27" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="33" s="27" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="34" s="27" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="35" s="27" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="36" s="27" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="37" s="27" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="38" s="27" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="39" s="27" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="40" s="27" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="41" s="27" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="42" s="27" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="43" s="27" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="44" s="27" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="45" s="27" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="46" s="27" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="47" s="27" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="48" s="27" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="49" s="27" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B12:E12"/>
@@ -1629,7 +1612,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="10.5"/>
+  <sheetFormatPr defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4.5703125" style="24" customWidth="1"/>
     <col min="2" max="2" width="32.7109375" style="24" bestFit="1" customWidth="1"/>
@@ -1643,7 +1626,7 @@
     <col min="14" max="16384" width="9.140625" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="11.25" thickBot="1">
+    <row r="1" spans="1:13" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="E1" s="90">
         <v>-0.02</v>
       </c>
@@ -1672,7 +1655,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="11.25" thickBot="1">
+    <row r="2" spans="1:13" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="39"/>
       <c r="B2" s="42"/>
       <c r="C2" s="43"/>
@@ -1705,7 +1688,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A3" s="40"/>
       <c r="B3" s="23" t="s">
         <v>2</v>
@@ -1754,7 +1737,7 @@
         <v>EUR_3Mx2Y_200bp_Quote</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A4" s="40"/>
       <c r="B4" s="25" t="s">
         <v>11</v>
@@ -1803,7 +1786,7 @@
         <v>EUR_1Yx2Y_200bp_Quote</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A5" s="40"/>
       <c r="B5" s="23" t="s">
         <v>1</v>
@@ -1852,7 +1835,7 @@
         <v>EUR_5Yx2Y_200bp_Quote</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A6" s="40"/>
       <c r="B6" s="25" t="s">
         <v>26</v>
@@ -1901,7 +1884,7 @@
         <v>EUR_10Yx2Y_200bp_Quote</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A7" s="40"/>
       <c r="B7" s="44"/>
       <c r="C7" s="45" t="s">
@@ -1947,7 +1930,7 @@
         <v>EUR_20Yx2Y_200bp_Quote</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A8" s="40"/>
       <c r="B8" s="44"/>
       <c r="C8" s="45"/>
@@ -1991,7 +1974,7 @@
         <v>EUR_30Yx2Y_200bp_Quote</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A9" s="40"/>
       <c r="B9" s="23" t="s">
         <v>2</v>
@@ -2040,7 +2023,7 @@
         <v>EUR_3Mx5Y_200bp_Quote</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A10" s="40"/>
       <c r="B10" s="25" t="s">
         <v>11</v>
@@ -2089,7 +2072,7 @@
         <v>EUR_1Yx5Y_200bp_Quote</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A11" s="40"/>
       <c r="B11" s="23" t="s">
         <v>1</v>
@@ -2138,7 +2121,7 @@
         <v>EUR_5Yx5Y_200bp_Quote</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A12" s="40"/>
       <c r="B12" s="25" t="s">
         <v>26</v>
@@ -2187,7 +2170,7 @@
         <v>EUR_10Yx5Y_200bp_Quote</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A13" s="40"/>
       <c r="B13" s="44"/>
       <c r="C13" s="45" t="s">
@@ -2233,7 +2216,7 @@
         <v>EUR_20Yx5Y_200bp_Quote</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A14" s="40"/>
       <c r="B14" s="44"/>
       <c r="C14" s="45"/>
@@ -2277,7 +2260,7 @@
         <v>EUR_30Yx5Y_200bp_Quote</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A15" s="40"/>
       <c r="B15" s="23" t="s">
         <v>2</v>
@@ -2326,7 +2309,7 @@
         <v>EUR_3Mx10Y_200bp_Quote</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A16" s="40"/>
       <c r="B16" s="25" t="s">
         <v>11</v>
@@ -2375,7 +2358,7 @@
         <v>EUR_1Yx10Y_200bp_Quote</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A17" s="40"/>
       <c r="B17" s="23" t="s">
         <v>1</v>
@@ -2424,7 +2407,7 @@
         <v>EUR_5Yx10Y_200bp_Quote</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A18" s="40"/>
       <c r="B18" s="25" t="s">
         <v>26</v>
@@ -2473,7 +2456,7 @@
         <v>EUR_10Yx10Y_200bp_Quote</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A19" s="40"/>
       <c r="B19" s="44"/>
       <c r="C19" s="45" t="s">
@@ -2519,7 +2502,7 @@
         <v>EUR_20Yx10Y_200bp_Quote</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A20" s="40"/>
       <c r="B20" s="44"/>
       <c r="C20" s="45"/>
@@ -2563,7 +2546,7 @@
         <v>EUR_30Yx10Y_200bp_Quote</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A21" s="40"/>
       <c r="B21" s="23" t="s">
         <v>2</v>
@@ -2612,7 +2595,7 @@
         <v>EUR_3Mx20Y_200bp_Quote</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A22" s="40"/>
       <c r="B22" s="25" t="s">
         <v>11</v>
@@ -2661,7 +2644,7 @@
         <v>EUR_1Yx20Y_200bp_Quote</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A23" s="40"/>
       <c r="B23" s="23" t="s">
         <v>1</v>
@@ -2710,7 +2693,7 @@
         <v>EUR_5Yx20Y_200bp_Quote</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A24" s="40"/>
       <c r="B24" s="25" t="s">
         <v>26</v>
@@ -2759,7 +2742,7 @@
         <v>EUR_10Yx20Y_200bp_Quote</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A25" s="40"/>
       <c r="B25" s="44"/>
       <c r="C25" s="45" t="s">
@@ -2805,7 +2788,7 @@
         <v>EUR_20Yx20Y_200bp_Quote</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A26" s="40"/>
       <c r="B26" s="44"/>
       <c r="C26" s="45"/>
@@ -2849,7 +2832,7 @@
         <v>EUR_30Yx20Y_200bp_Quote</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A27" s="40"/>
       <c r="B27" s="23" t="s">
         <v>2</v>
@@ -2898,7 +2881,7 @@
         <v>EUR_3Mx30Y_200bp_Quote</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A28" s="40"/>
       <c r="B28" s="25" t="s">
         <v>11</v>
@@ -2947,7 +2930,7 @@
         <v>EUR_1Yx30Y_200bp_Quote</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A29" s="40"/>
       <c r="B29" s="23" t="s">
         <v>1</v>
@@ -2996,7 +2979,7 @@
         <v>EUR_5Yx30Y_200bp_Quote</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A30" s="40"/>
       <c r="B30" s="25" t="s">
         <v>26</v>
@@ -3045,7 +3028,7 @@
         <v>EUR_10Yx30Y_200bp_Quote</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A31" s="40"/>
       <c r="B31" s="44"/>
       <c r="C31" s="45" t="s">
@@ -3091,7 +3074,7 @@
         <v>EUR_20Yx30Y_200bp_Quote</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="11.25" thickBot="1">
+    <row r="32" spans="1:13" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A32" s="41"/>
       <c r="B32" s="46"/>
       <c r="C32" s="47"/>
@@ -3135,18 +3118,18 @@
         <v>EUR_30Yx30Y_200bp_Quote</v>
       </c>
     </row>
-    <row r="34" spans="2:4" ht="11.25" thickBot="1"/>
-    <row r="35" spans="2:4" s="67" customFormat="1" ht="13.5" thickBot="1">
+    <row r="34" spans="2:4" ht="11.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="35" spans="2:4" s="67" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B35" s="68" t="s">
         <v>21</v>
       </c>
       <c r="C35" s="69"/>
       <c r="D35" s="70"/>
     </row>
-    <row r="36" spans="2:4" s="67" customFormat="1" ht="12" thickBot="1">
+    <row r="36" spans="2:4" s="67" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B36" s="71"/>
     </row>
-    <row r="37" spans="2:4" s="67" customFormat="1" ht="12" thickBot="1">
+    <row r="37" spans="2:4" s="67" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C37" s="72" t="s">
         <v>22</v>
       </c>
@@ -3154,7 +3137,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="2:4" customFormat="1" ht="12.75">
+    <row r="38" spans="2:4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B38" s="77" t="s">
         <v>23</v>
       </c>
@@ -3167,7 +3150,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="39" spans="2:4">
+    <row r="39" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B39" s="78" t="e">
         <f>C5</f>
         <v>#NUM!</v>
@@ -3178,7 +3161,7 @@
       </c>
       <c r="D39" s="82"/>
     </row>
-    <row r="40" spans="2:4">
+    <row r="40" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B40" s="79" t="e">
         <f>C11</f>
         <v>#NUM!</v>
@@ -3189,7 +3172,7 @@
       </c>
       <c r="D40" s="84"/>
     </row>
-    <row r="41" spans="2:4">
+    <row r="41" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B41" s="79" t="e">
         <f>C17</f>
         <v>#NUM!</v>
@@ -3200,7 +3183,7 @@
       </c>
       <c r="D41" s="84"/>
     </row>
-    <row r="42" spans="2:4">
+    <row r="42" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B42" s="79" t="e">
         <f>C23</f>
         <v>#NUM!</v>
@@ -3211,7 +3194,7 @@
       </c>
       <c r="D42" s="84"/>
     </row>
-    <row r="43" spans="2:4" ht="11.25" thickBot="1">
+    <row r="43" spans="2:4" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B43" s="80" t="e">
         <f>C29</f>
         <v>#NUM!</v>

--- a/QuantLibXL/Data/XLS/040_SwaptionVolBootstrap/040_Experimental/EUR_020_SwaptionSabrVolSurfaces.xlsx
+++ b/QuantLibXL/Data/XLS/040_SwaptionVolBootstrap/040_Experimental/EUR_020_SwaptionSabrVolSurfaces.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="38">
   <si>
     <t>Trigger</t>
   </si>
@@ -143,9 +143,6 @@
   </si>
   <si>
     <t>ICAP</t>
-  </si>
-  <si>
-    <t>C:\Users\erik\junk\</t>
   </si>
 </sst>
 </file>
@@ -1346,8 +1343,9 @@
       <c r="C8" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="88" t="s">
-        <v>38</v>
+      <c r="D8" s="88" t="str">
+        <f ca="1">SUBSTITUTE(LEFT(CELL("filename",A1),FIND("[",CELL("filename",A1),1)-1),"\XLS\","\XML\")</f>
+        <v>C:\Users\erik\Documents\repos\quantlib_nando\QuantLibXL\Data\XML\040_SwaptionVolBootstrap\040_Experimental\</v>
       </c>
       <c r="E8" s="63"/>
     </row>
@@ -1840,9 +1838,9 @@
       <c r="B6" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="87" t="str">
+      <c r="C6" s="87" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(C5)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>4</v>
@@ -2126,9 +2124,9 @@
       <c r="B12" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="87" t="str">
+      <c r="C12" s="87" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(C11)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>4</v>
@@ -2412,9 +2410,9 @@
       <c r="B18" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="87" t="str">
+      <c r="C18" s="87" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(C17)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="D18" s="7" t="s">
         <v>4</v>
@@ -2698,9 +2696,9 @@
       <c r="B24" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="87" t="str">
+      <c r="C24" s="87" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(C23)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="D24" s="7" t="s">
         <v>4</v>
@@ -2984,9 +2982,9 @@
       <c r="B30" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="C30" s="87" t="str">
+      <c r="C30" s="87" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(C29)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="D30" s="7" t="s">
         <v>4</v>
@@ -3146,8 +3144,8 @@
         <v>EUR_020_SwaptionSabrVolSurfaces.xml</v>
       </c>
       <c r="D38" s="74" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(B39:B43,SerializationPath&amp;C38,FileOverwrite,Serialize),"--")</f>
-        <v>#NUM!</v>
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(B39:B43,SerializationPath&amp;C38,FileOverwrite,Serialize),"--")</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.15">
@@ -3155,9 +3153,9 @@
         <f>C5</f>
         <v>#NUM!</v>
       </c>
-      <c r="C39" s="81" t="str">
+      <c r="C39" s="81" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(C5)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="D39" s="82"/>
     </row>
